--- a/cflwork-document/documents/瑞兰公寓功能详情.xlsx
+++ b/cflwork-document/documents/瑞兰公寓功能详情.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="8580"/>
+    <workbookView windowWidth="28695" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -33,7 +33,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -47,7 +47,7 @@
           <rPr>
             <b/>
             <sz val="12"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -55,7 +55,7 @@
         <r>
           <rPr>
             <sz val="12"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -74,7 +74,7 @@
           <rPr>
             <b/>
             <sz val="12"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -82,7 +82,7 @@
         <r>
           <rPr>
             <sz val="12"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -95,7 +95,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">			
@@ -109,7 +109,7 @@
           <rPr>
             <b/>
             <sz val="14"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -117,7 +117,7 @@
         <r>
           <rPr>
             <sz val="14"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -136,7 +136,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -144,7 +144,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -168,7 +168,7 @@
         <r>
           <rPr>
             <sz val="12"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">				</t>
@@ -181,7 +181,7 @@
           <rPr>
             <b/>
             <sz val="14"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -189,7 +189,7 @@
         <r>
           <rPr>
             <sz val="14"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -221,7 +221,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -229,7 +229,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -243,7 +243,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -251,7 +251,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -260,7 +260,7 @@
         <r>
           <rPr>
             <sz val="14"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>收入合计、入住率、合计成本、月总盈亏、当月评价结算价、当月总计间夜数、成本房价、总计间夜量、成本入住率、单房成本营业额</t>
@@ -1247,10 +1247,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1327,97 +1327,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1441,6 +1350,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1449,8 +1404,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1459,6 +1445,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1484,7 +1484,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1493,13 +1493,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,7 +1517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,37 +1529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1571,6 +1553,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1583,7 +1655,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1595,85 +1679,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,12 +1693,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1730,9 +1749,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1755,32 +1785,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1789,159 +1795,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1959,23 +1974,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2318,365 +2345,365 @@
   <sheetPr/>
   <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="6.6283185840708" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.2477876106195" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="77" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6283185840708" style="1" customWidth="1"/>
-    <col min="5" max="5" width="81.3716814159292" customWidth="1"/>
-    <col min="6" max="7" width="30.6283185840708" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="81.375" customWidth="1"/>
+    <col min="6" max="7" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="62" customHeight="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" ht="58" customHeight="1" spans="1:4">
-      <c r="A4" s="1">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="58" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="43" customHeight="1" spans="1:4">
-      <c r="A5" s="1">
+    <row r="5" s="3" customFormat="1" ht="43" customHeight="1" spans="1:4">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="34" customHeight="1" spans="1:4">
-      <c r="A6" s="1">
+    <row r="6" s="2" customFormat="1" ht="34" customHeight="1" spans="1:4">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="48" customHeight="1" spans="1:4">
-      <c r="A7" s="1">
+    <row r="7" s="2" customFormat="1" ht="48" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="28" customHeight="1" spans="1:4">
-      <c r="A8" s="1">
+    <row r="8" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="35" customHeight="1" spans="1:4">
-      <c r="A9" s="1">
+    <row r="9" s="2" customFormat="1" ht="35" customHeight="1" spans="1:4">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:4">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" ht="72" customHeight="1" spans="1:5">
-      <c r="A11" s="1">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="72" customHeight="1" spans="1:5">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" ht="63" customHeight="1" spans="1:4">
-      <c r="A12" s="1">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="63" customHeight="1" spans="1:4">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="82" customHeight="1" spans="1:4">
-      <c r="A13" s="1">
+    <row r="13" s="2" customFormat="1" ht="82" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" ht="59" customHeight="1" spans="1:5">
-      <c r="A14" s="1">
+    <row r="14" s="2" customFormat="1" ht="59" customHeight="1" spans="1:5">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" ht="57" customHeight="1" spans="1:5">
-      <c r="A15" s="1">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="57" customHeight="1" spans="1:5">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" ht="58" customHeight="1" spans="1:5">
-      <c r="A16" s="1">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="58" customHeight="1" spans="1:5">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" ht="28" customHeight="1" spans="1:4">
-      <c r="A17" s="1">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" ht="28" customHeight="1" spans="1:4">
-      <c r="A18" s="1">
+    <row r="18" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" ht="28" customHeight="1" spans="1:5">
-      <c r="A19" s="1">
+    <row r="19" s="2" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" ht="28" customHeight="1" spans="1:4">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" ht="28" customHeight="1" spans="1:4">
-      <c r="A21" s="1">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" ht="28" customHeight="1" spans="1:4">
-      <c r="A22" s="1">
+    <row r="22" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" ht="28" customHeight="1" spans="1:4">
-      <c r="A23" s="1">
+    <row r="23" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" ht="28" customHeight="1" spans="1:4">
-      <c r="A24" s="1">
+    <row r="24" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" ht="28" customHeight="1" spans="1:4">
-      <c r="A25" s="1">
+    <row r="25" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" ht="39" customHeight="1" spans="1:4">
-      <c r="A26" s="1">
+    <row r="26" s="2" customFormat="1" ht="39" customHeight="1" spans="1:4">
+      <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2684,18 +2711,18 @@
       <c r="A27" s="1">
         <v>22</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="15" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" ht="28" customHeight="1" spans="1:4">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" ht="33" customHeight="1" spans="1:4">
       <c r="A28" s="1">
         <v>23</v>
       </c>
@@ -2709,611 +2736,611 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" ht="47" customHeight="1" spans="1:4">
-      <c r="A29" s="1">
+    <row r="29" s="2" customFormat="1" ht="47" customHeight="1" spans="1:4">
+      <c r="A29" s="3">
         <v>24</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" ht="28" customHeight="1" spans="1:4">
-      <c r="A30" s="1">
+    <row r="30" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" ht="28" customHeight="1" spans="1:4">
-      <c r="A31" s="1">
+    <row r="31" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" ht="28" customHeight="1" spans="1:4">
-      <c r="A32" s="1">
+    <row r="32" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" ht="28" customHeight="1" spans="1:4">
-      <c r="A33" s="1">
+    <row r="33" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A33" s="3">
         <v>28</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" ht="28" customHeight="1" spans="1:4">
-      <c r="A34" s="1">
+    <row r="34" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A34" s="3">
         <v>29</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+    <row r="35" s="4" customFormat="1" ht="28" customHeight="1" spans="1:4">
       <c r="A35" s="1">
         <v>30</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" ht="28" customHeight="1" spans="1:4">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" ht="42" customHeight="1" spans="1:4">
-      <c r="A37" s="1">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A37" s="3">
         <v>31</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" ht="28" customHeight="1" spans="1:5">
-      <c r="A38" s="1">
+    <row r="38" s="2" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A38" s="3">
         <v>32</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" ht="28" customHeight="1" spans="1:5">
-      <c r="A39" s="1">
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A39" s="3">
         <v>33</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" ht="28" customHeight="1" spans="1:4">
-      <c r="A40" s="1">
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A40" s="3">
         <v>34</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" ht="28" customHeight="1" spans="1:5">
-      <c r="A41" s="1">
+    <row r="41" s="2" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A41" s="3">
         <v>35</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" ht="28" customHeight="1" spans="1:5">
-      <c r="A42" s="1">
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A42" s="3">
         <v>36</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" ht="28" customHeight="1" spans="1:4">
-      <c r="A43" s="1">
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A43" s="3">
         <v>37</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" ht="28" customHeight="1" spans="1:4">
-      <c r="A44" s="1">
+    <row r="44" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A44" s="3">
         <v>38</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" ht="46" customHeight="1" spans="1:5">
-      <c r="A45" s="1">
+    <row r="45" s="2" customFormat="1" ht="46" customHeight="1" spans="1:5">
+      <c r="A45" s="3">
         <v>39</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
-      <c r="A46" s="1">
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" s="5" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A46" s="3">
         <v>40</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" ht="28" customHeight="1" spans="1:4">
-      <c r="A47" s="1">
+    <row r="47" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A47" s="3">
         <v>41</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" ht="28" customHeight="1" spans="1:4">
-      <c r="A48" s="1">
+    <row r="48" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A48" s="3">
         <v>42</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" ht="28" customHeight="1" spans="1:4">
-      <c r="A49" s="1">
+    <row r="49" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A49" s="3">
         <v>43</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" ht="28" customHeight="1" spans="1:5">
-      <c r="A50" s="1">
+    <row r="50" s="2" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A50" s="3">
         <v>44</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" ht="28" customHeight="1" spans="1:5">
-      <c r="A51" s="1">
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A51" s="3">
         <v>45</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="2"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" ht="28" customHeight="1" spans="1:6">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" ht="35" customHeight="1" spans="1:6">
-      <c r="A53" s="1">
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A53" s="3">
         <v>46</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" ht="28" customHeight="1" spans="1:6">
-      <c r="A54" s="1">
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+    </row>
+    <row r="54" s="2" customFormat="1" ht="28" customHeight="1" spans="1:6">
+      <c r="A54" s="3">
         <v>47</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" ht="28" customHeight="1" spans="1:6">
-      <c r="A55" s="1">
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+    </row>
+    <row r="55" s="2" customFormat="1" ht="28" customHeight="1" spans="1:6">
+      <c r="A55" s="3">
         <v>48</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" ht="28" customHeight="1" spans="1:6">
-      <c r="A56" s="1">
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+    </row>
+    <row r="56" s="2" customFormat="1" ht="28" customHeight="1" spans="1:6">
+      <c r="A56" s="3">
         <v>49</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" ht="28" customHeight="1" spans="1:6">
-      <c r="A57" s="1">
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+    </row>
+    <row r="57" s="2" customFormat="1" ht="28" customHeight="1" spans="1:6">
+      <c r="A57" s="3">
         <v>50</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" ht="31" customHeight="1" spans="1:6">
-      <c r="A58" s="1">
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" s="2" customFormat="1" ht="31" customHeight="1" spans="1:6">
+      <c r="A58" s="3">
         <v>51</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" ht="34" customHeight="1" spans="1:6">
-      <c r="A59" s="1">
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" s="2" customFormat="1" ht="34" customHeight="1" spans="1:6">
+      <c r="A59" s="3">
         <v>52</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" ht="28" customHeight="1" spans="1:6">
-      <c r="A60" s="1">
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" s="2" customFormat="1" ht="28" customHeight="1" spans="1:6">
+      <c r="A60" s="3">
         <v>53</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" ht="28" customHeight="1" spans="1:6">
-      <c r="A61" s="1">
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" s="2" customFormat="1" ht="28" customHeight="1" spans="1:6">
+      <c r="A61" s="3">
         <v>54</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" s="3" customFormat="1" ht="28" customHeight="1" spans="1:6">
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" s="6" customFormat="1" ht="28" customHeight="1" spans="1:6">
       <c r="A62" s="1">
         <v>55</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-    </row>
-    <row r="63" s="2" customFormat="1" ht="28" customHeight="1" spans="1:6">
-      <c r="A63" s="1">
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+    </row>
+    <row r="63" s="5" customFormat="1" ht="28" customHeight="1" spans="1:6">
+      <c r="A63" s="3">
         <v>56</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" s="2" customFormat="1" ht="28" customHeight="1" spans="1:6">
-      <c r="A64" s="1">
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+    </row>
+    <row r="64" s="5" customFormat="1" ht="28" customHeight="1" spans="1:6">
+      <c r="A64" s="3">
         <v>57</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" s="2" customFormat="1" ht="28" customHeight="1" spans="1:6">
-      <c r="A65" s="1">
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+    </row>
+    <row r="65" s="5" customFormat="1" ht="28" customHeight="1" spans="1:6">
+      <c r="A65" s="3">
         <v>58</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-    </row>
-    <row r="66" s="2" customFormat="1" ht="28" customHeight="1" spans="1:6">
-      <c r="A66" s="1">
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+    </row>
+    <row r="66" s="5" customFormat="1" ht="28" customHeight="1" spans="1:6">
+      <c r="A66" s="3">
         <v>59</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-    </row>
-    <row r="67" s="2" customFormat="1" ht="28" customHeight="1" spans="1:6">
-      <c r="A67" s="1">
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+    </row>
+    <row r="67" s="5" customFormat="1" ht="28" customHeight="1" spans="1:6">
+      <c r="A67" s="3">
         <v>60</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-    </row>
-    <row r="68" s="2" customFormat="1" ht="28" customHeight="1" spans="1:6">
-      <c r="A68" s="1">
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+    </row>
+    <row r="68" s="5" customFormat="1" ht="28" customHeight="1" spans="1:6">
+      <c r="A68" s="3">
         <v>61</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
     </row>
     <row r="69" ht="28" customHeight="1" spans="1:4">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" ht="40" customHeight="1" spans="1:4">
       <c r="A70" s="1">
         <v>62</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="15" t="s">
         <v>139</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -3324,10 +3351,10 @@
       <c r="A71" s="1">
         <v>63</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -3341,136 +3368,136 @@
       <c r="B72" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="15" t="s">
         <v>143</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+    <row r="73" s="4" customFormat="1" ht="30" customHeight="1" spans="1:4">
       <c r="A73" s="1">
         <v>65</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="21" t="s">
         <v>145</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+    <row r="74" s="4" customFormat="1" ht="30" customHeight="1" spans="1:4">
       <c r="A74" s="1">
         <v>66</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="21" t="s">
         <v>147</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+    <row r="75" s="4" customFormat="1" ht="30" customHeight="1" spans="1:4">
       <c r="A75" s="1">
         <v>67</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="21" t="s">
         <v>149</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+    <row r="76" s="4" customFormat="1" ht="30" customHeight="1" spans="1:4">
       <c r="A76" s="1">
         <v>68</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="21" t="s">
         <v>151</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A77" s="1">
+    <row r="77" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A77" s="3">
         <v>69</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A78" s="1">
+    <row r="78" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A78" s="3">
         <v>70</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A79" s="1">
+    <row r="79" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A79" s="3">
         <v>71</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A80" s="1">
+    <row r="80" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A80" s="3">
         <v>72</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A81" s="1">
+    <row r="81" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A81" s="3">
         <v>73</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3478,307 +3505,307 @@
       <c r="A82" s="1">
         <v>74</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-    </row>
-    <row r="83" ht="28" customHeight="1" spans="1:4">
-      <c r="A83" s="1">
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+    </row>
+    <row r="83" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A83" s="3">
         <v>75</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="84" ht="28" customHeight="1" spans="1:4">
-      <c r="A84" s="1">
+    <row r="84" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A84" s="3">
         <v>76</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="85" ht="28" customHeight="1" spans="1:4">
-      <c r="A85" s="1">
+    <row r="85" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A85" s="3">
         <v>77</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="86" ht="28" customHeight="1" spans="1:4">
-      <c r="A86" s="1">
+    <row r="86" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A86" s="3">
         <v>78</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="87" ht="28" customHeight="1" spans="1:4">
-      <c r="A87" s="1">
+    <row r="87" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A87" s="3">
         <v>79</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="88" ht="28" customHeight="1" spans="1:4">
-      <c r="A88" s="1">
+    <row r="88" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A88" s="3">
         <v>80</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="89" ht="28" customHeight="1" spans="1:4">
-      <c r="A89" s="1">
+    <row r="89" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A89" s="3">
         <v>81</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="90" ht="58" customHeight="1" spans="1:4">
-      <c r="A90" s="1">
+    <row r="90" s="2" customFormat="1" ht="58" customHeight="1" spans="1:4">
+      <c r="A90" s="3">
         <v>82</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C90" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="91" ht="28" customHeight="1" spans="1:4">
-      <c r="A91" s="1">
+    <row r="91" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A91" s="3">
         <v>83</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="92" ht="28" customHeight="1" spans="1:4">
-      <c r="A92" s="1">
+    <row r="92" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A92" s="3">
         <v>84</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="93" ht="28" customHeight="1" spans="1:4">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
     </row>
     <row r="94" ht="28" customHeight="1" spans="1:4">
-      <c r="A94" s="17">
+      <c r="A94" s="24">
         <v>85</v>
       </c>
-      <c r="B94" s="17" t="s">
+      <c r="B94" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C94" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="D94" s="17" t="s">
+      <c r="D94" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="95" ht="28" customHeight="1" spans="1:4">
-      <c r="A95" s="17">
+      <c r="A95" s="24">
         <v>86</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C95" s="17" t="s">
+      <c r="C95" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="D95" s="17" t="s">
+      <c r="D95" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="96" ht="28" customHeight="1" spans="1:4">
-      <c r="A96" s="17">
+      <c r="A96" s="24">
         <v>87</v>
       </c>
-      <c r="B96" s="17" t="s">
+      <c r="B96" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="C96" s="17" t="s">
+      <c r="C96" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D96" s="17" t="s">
+      <c r="D96" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="97" ht="28" customHeight="1" spans="1:4">
-      <c r="A97" s="17">
+      <c r="A97" s="24">
         <v>88</v>
       </c>
-      <c r="B97" s="17" t="s">
+      <c r="B97" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="D97" s="17" t="s">
+      <c r="D97" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="98" ht="28" customHeight="1" spans="1:4">
-      <c r="A98" s="17">
+      <c r="A98" s="24">
         <v>89</v>
       </c>
-      <c r="B98" s="17" t="s">
+      <c r="B98" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C98" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="D98" s="17" t="s">
+      <c r="D98" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="99" ht="28" customHeight="1" spans="1:4">
-      <c r="A99" s="17">
+      <c r="A99" s="24">
         <v>90</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="C99" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D99" s="17" t="s">
+      <c r="D99" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="100" ht="28" customHeight="1" spans="1:4">
-      <c r="A100" s="17">
+      <c r="A100" s="24">
         <v>91</v>
       </c>
-      <c r="B100" s="17" t="s">
+      <c r="B100" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C100" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="D100" s="17" t="s">
+      <c r="D100" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="101" ht="28" customHeight="1" spans="1:4">
-      <c r="A101" s="17">
+      <c r="A101" s="24">
         <v>92</v>
       </c>
-      <c r="B101" s="17" t="s">
+      <c r="B101" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="C101" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D101" s="17" t="s">
+      <c r="D101" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
-      <c r="A102" s="17">
+    <row r="102" s="4" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A102" s="24">
         <v>93</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="103" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
-      <c r="A103" s="17">
+    <row r="103" s="4" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A103" s="24">
         <v>94</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="D103" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="104" ht="28" customHeight="1" spans="1:4">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
     </row>
     <row r="105" ht="28" customHeight="1" spans="1:4">
       <c r="A105" s="1">
@@ -3920,83 +3947,83 @@
         <v>57</v>
       </c>
     </row>
-    <row r="115" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+    <row r="115" s="4" customFormat="1" ht="28" customHeight="1" spans="1:4">
       <c r="A115" s="1">
         <v>105</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="D115" s="10" t="s">
+      <c r="D115" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="116" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+    <row r="116" s="4" customFormat="1" ht="28" customHeight="1" spans="1:4">
       <c r="A116" s="1">
         <v>106</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C116" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="D116" s="10" t="s">
+      <c r="D116" s="17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="117" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+    <row r="117" s="4" customFormat="1" ht="28" customHeight="1" spans="1:4">
       <c r="A117" s="1">
         <v>107</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C117" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D117" s="17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="118" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+    <row r="118" s="4" customFormat="1" ht="28" customHeight="1" spans="1:4">
       <c r="A118" s="1">
         <v>108</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D118" s="17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" ht="28" customHeight="1" spans="1:4">
+    <row r="119" s="4" customFormat="1" ht="28" customHeight="1" spans="1:4">
       <c r="A119" s="1">
         <v>109</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="17" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="120" ht="28" customHeight="1" spans="1:4">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
     </row>
     <row r="121" ht="28" customHeight="1" spans="1:4">
       <c r="A121" s="1">
@@ -4086,16 +4113,16 @@
       <c r="A127" s="1">
         <v>116</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C127" s="17" t="s">
         <v>224</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" s="4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4103,21 +4130,21 @@
       <c r="A128" s="1">
         <v>117</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C128" s="17" t="s">
         <v>227</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" s="4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="129" ht="28" customHeight="1" spans="1:1">
-      <c r="A129" s="18" t="s">
+      <c r="A129" s="25" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4131,7 +4158,7 @@
       <c r="C130" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E130" s="4" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4145,7 +4172,7 @@
       <c r="C131" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E131" s="2"/>
+      <c r="E131" s="4"/>
     </row>
     <row r="132" ht="28" customHeight="1" spans="1:3">
       <c r="A132" s="1">
@@ -4236,7 +4263,7 @@
       </c>
     </row>
     <row r="140" ht="28" customHeight="1" spans="1:1">
-      <c r="A140" s="18" t="s">
+      <c r="A140" s="25" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4261,7 +4288,7 @@
       <c r="C142" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E142" s="4" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4299,7 +4326,7 @@
       </c>
     </row>
     <row r="146" ht="28" customHeight="1" spans="1:1">
-      <c r="A146" s="6" t="s">
+      <c r="A146" s="9" t="s">
         <v>247</v>
       </c>
     </row>
